--- a/medicine/Enfance/Jutta_Bauer/Jutta_Bauer.xlsx
+++ b/medicine/Enfance/Jutta_Bauer/Jutta_Bauer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jutta Bauer (9 janvier 1955, Hambourg) est une écrivaine et illustratrice de littérature jeunesse allemande.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir étudié à l'école technique d'arts décoratifs de Hambourg, elle travaille comme illustratrice de livres jeunesse et de cartoniste pour le magazine féminin Brigitte.
 Son livre illustré Schreimutter reçoit le Deutscher Jugendliteraturpreis, prix de littérature jeunesse allemand, en 2001.
-Elle remporte le prestigieux prix international, le prix Hans Christian Andersen en  2010 dans la catégorie Illustration, pour l'ensemble de son œuvre[1].
-En 2020, 2021 et 2024, elle est sélectionnée pour un autre prestigieux prix, le Prix commémoratif Astrid-Lindgren[2].
+Elle remporte le prestigieux prix international, le prix Hans Christian Andersen en  2010 dans la catégorie Illustration, pour l'ensemble de son œuvre.
+En 2020, 2021 et 2024, elle est sélectionnée pour un autre prestigieux prix, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Jutta Bauer (ill. Jutta Bauer), Ein Engel trägt meinen Hinkelstein, Lappan Verlag GmbH, août 1999, 64 p., 231x202x15 (ISBN 978-3890828749)
 (de) Jutta Bauer (ill. Jutta Bauer), Schreimutter, Beltz &amp; Gelberg, août 2000, 36 p., 210x168x10 (ISBN 2070539016)
@@ -581,13 +597,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1994 : (international) « Honour List »[3] de l' IBBY, catégorie Illustration, pour Ein und alles (texte de Christine Nöstlinger)
-2001 : Deutscher Jugendliteraturpreis pour Schreimutter[4]
-2004 : (international) « Honour List »[5] de l' IBBY pour L'Ange de grand-père
-2010 : prix Hans Christian Andersen, catégorie Illustration, pour l'ensemble de son œuvre[1]
-2020, 2021 et 2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1994 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour Ein und alles (texte de Christine Nöstlinger)
+2001 : Deutscher Jugendliteraturpreis pour Schreimutter
+2004 : (international) « Honour List » de l' IBBY pour L'Ange de grand-père
+2010 : prix Hans Christian Andersen, catégorie Illustration, pour l'ensemble de son œuvre
+2020, 2021 et 2024 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
